--- a/xlsx/餐馆_intext.xlsx
+++ b/xlsx/餐馆_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>餐馆</t>
   </si>
@@ -29,37 +29,37 @@
     <t>酒店</t>
   </si>
   <si>
-    <t>政策_政策_美國_餐馆</t>
+    <t>政策_政策_美国_餐馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>餐廳</t>
+    <t>餐厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%BF%E7%95%B6</t>
   </si>
   <si>
-    <t>便當</t>
+    <t>便当</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%99%E7%90%86</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E6%96%99</t>
   </si>
   <si>
-    <t>飲料</t>
+    <t>饮料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%BF%E7%AB%99</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E5%AE%A4</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%98%8E%E4%B8%8A%E6%B2%B3%E5%9C%96</t>
   </si>
   <si>
-    <t>清明上河圖</t>
+    <t>清明上河图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -155,21 +155,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E9%A3%9F%E6%A5%AD</t>
   </si>
   <si>
-    <t>飲食業</t>
+    <t>饮食业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
   </si>
   <si>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>宴會</t>
+    <t>宴会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boodle_fight</t>
@@ -359,13 +356,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A5%AE%E6%96%99</t>
   </si>
   <si>
-    <t>饮料</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>進食</t>
+    <t>进食</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_breakfast</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E6%A1%8C%E7%A6%AE%E5%84%80</t>
   </si>
   <si>
-    <t>餐桌禮儀</t>
+    <t>餐桌礼仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83</t>
@@ -425,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E8%A3%9D</t>
   </si>
   <si>
-    <t>服裝</t>
+    <t>服装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%8D%E6%87%89</t>
   </si>
   <si>
-    <t>侍應</t>
+    <t>侍应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%B2%BB</t>
   </si>
   <si>
-    <t>小費</t>
+    <t>小费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E9%A3%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>餐飲業</t>
+    <t>餐饮业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%A4%90</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E7%8B%97</t>
   </si>
   <si>
-    <t>熱狗</t>
+    <t>热狗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%AF%E6%9D%A1</t>
@@ -563,9 +557,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
@@ -617,25 +608,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%89%8C%E6%AA%94</t>
   </si>
   <si>
-    <t>大牌檔</t>
+    <t>大牌档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E6%A8%93</t>
   </si>
   <si>
-    <t>茶樓</t>
+    <t>茶楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E6%A8%93</t>
   </si>
   <si>
-    <t>酒樓</t>
+    <t>酒楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E8%BD%A6</t>
@@ -653,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>西餐廳</t>
+    <t>西餐厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%AE%A4</t>
@@ -665,25 +656,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E5%86%B0%E5%AE%A4</t>
   </si>
   <si>
-    <t>飲冰室</t>
+    <t>饮冰室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>快餐廳</t>
+    <t>快餐厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>茶餐廳</t>
+    <t>茶餐厅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%A3%9F%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>美食廣場</t>
+    <t>美食广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%A0%82</t>
@@ -701,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E6%87%89%E9%8F%88</t>
   </si>
   <si>
-    <t>供應鏈</t>
+    <t>供应链</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E4%B8%BB%E5%BB%9A</t>
   </si>
   <si>
-    <t>行政主廚</t>
+    <t>行政主厨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%AE%89%E5%85%A8</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1816,7 +1807,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1842,10 +1833,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1871,10 +1862,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1900,10 +1891,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>109</v>
@@ -1929,10 +1920,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1958,10 +1949,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -1987,10 +1978,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2016,10 +2007,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2045,10 +2036,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2074,10 +2065,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2103,10 +2094,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2132,10 +2123,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2161,10 +2152,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2190,10 +2181,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2219,10 +2210,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2248,10 +2239,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2277,10 +2268,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2306,10 +2297,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2335,10 +2326,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2364,10 +2355,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2393,10 +2384,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2422,10 +2413,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2451,10 +2442,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2480,10 +2471,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2509,10 +2500,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2538,10 +2529,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2567,10 +2558,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2596,10 +2587,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2625,10 +2616,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2654,10 +2645,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2683,10 +2674,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -2712,10 +2703,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2741,10 +2732,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2770,10 +2761,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2799,10 +2790,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2828,10 +2819,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2857,10 +2848,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2886,10 +2877,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2915,10 +2906,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2944,10 +2935,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -2973,10 +2964,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3002,10 +2993,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3031,10 +3022,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3060,10 +3051,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3089,10 +3080,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3118,10 +3109,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3147,10 +3138,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>12</v>
@@ -3176,10 +3167,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3205,10 +3196,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3234,10 +3225,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3263,10 +3254,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -3292,10 +3283,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3321,10 +3312,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>21</v>
@@ -3350,10 +3341,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3408,10 +3399,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3437,10 +3428,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3466,10 +3457,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3495,10 +3486,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -3524,10 +3515,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -3553,10 +3544,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3582,10 +3573,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3611,10 +3602,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3640,10 +3631,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3669,10 +3660,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3698,10 +3689,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3727,10 +3718,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3785,10 +3776,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3814,10 +3805,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -3843,10 +3834,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3872,10 +3863,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -3901,10 +3892,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -3930,10 +3921,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3959,10 +3950,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3988,10 +3979,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4017,10 +4008,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4046,10 +4037,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4075,10 +4066,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4104,10 +4095,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4133,10 +4124,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4162,10 +4153,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4191,10 +4182,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4220,10 +4211,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4249,10 +4240,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4278,10 +4269,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -4307,10 +4298,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4336,10 +4327,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4365,10 +4356,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4394,10 +4385,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4423,10 +4414,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -4452,10 +4443,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>5</v>
@@ -4481,10 +4472,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -4510,10 +4501,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4539,10 +4530,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4568,10 +4559,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4597,10 +4588,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4626,10 +4617,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4655,10 +4646,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4684,10 +4675,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -4713,10 +4704,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
